--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2104.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2104.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.08636635750788</v>
+        <v>3.820666790008545</v>
       </c>
       <c r="B1">
-        <v>2.493875508445039</v>
+        <v>2.798565864562988</v>
       </c>
       <c r="C1">
-        <v>2.199651999781731</v>
+        <v>2.016470432281494</v>
       </c>
       <c r="D1">
-        <v>2.398861510144529</v>
+        <v>1.859195709228516</v>
       </c>
       <c r="E1">
-        <v>2.955279140830624</v>
+        <v>1.915044069290161</v>
       </c>
     </row>
   </sheetData>
